--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\CashControlTest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{0B4EBD1E-7EA7-4CD1-ABCA-82DCF10B4EF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13005" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="2160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,11 +422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>43101</v>
+        <v>43346</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,7 +502,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{0B4EBD1E-7EA7-4CD1-ABCA-82DCF10B4EF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\CashControlTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0017ACEA-4515-45E2-9D56-FEF98BE7D901}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="2160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="5190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Value</t>
   </si>
@@ -60,6 +64,12 @@
   </si>
   <si>
     <t>E:\\Automation\\Selenium\\Drivers</t>
+  </si>
+  <si>
+    <t>MacUser</t>
+  </si>
+  <si>
+    <t>jdbc:sqlserver://192.168.6.204\MSSQLSERVER2016;databaseName=SFOT_MCCC;</t>
   </si>
 </sst>
 </file>
@@ -426,7 +436,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,15 +499,24 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\CashControlTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0017ACEA-4515-45E2-9D56-FEF98BE7D901}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8E98278C-ADD5-4914-9CDA-F20FF4F32537}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="5190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Value</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>jdbc:sqlserver://192.168.6.204\MSSQLSERVER2016;databaseName=SFOT_MCCC;</t>
+  </si>
+  <si>
+    <t>Tax Included PLU</t>
+  </si>
+  <si>
+    <t>Plus Tax PLU</t>
+  </si>
+  <si>
+    <t>100 | Parking Refund</t>
+  </si>
+  <si>
+    <t>10043559 | AAA NAtional Summer Sale SFOT</t>
+  </si>
+  <si>
+    <t>Default PLU</t>
+  </si>
+  <si>
+    <t>10000 | Main Gate Regular</t>
+  </si>
+  <si>
+    <t>Inactive AC</t>
+  </si>
+  <si>
+    <t>SF Friends</t>
+  </si>
+  <si>
+    <t>Legal</t>
   </si>
 </sst>
 </file>
@@ -114,10 +141,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -433,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +472,7 @@
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -463,7 +491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -471,7 +499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -479,7 +507,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -487,7 +515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -495,7 +523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -503,7 +531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -511,12 +539,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
